--- a/hostSystem/xlsxPaths/formation1.xlsx
+++ b/hostSystem/xlsxPaths/formation1.xlsx
@@ -111,11 +111,11 @@
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
     <col min="5" max="5" width="14.42578125" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
-    <col min="7" max="7" width="13.42578125" customWidth="true"/>
+    <col min="7" max="7" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -146,10 +146,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>0.75</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="C2" s="0">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="0">
         <v>-0.5</v>
@@ -161,7 +161,7 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="G2" s="0">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -169,10 +169,10 @@
         <v>0.5</v>
       </c>
       <c r="B3" s="0">
-        <v>0.75</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="C3" s="0">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="0">
         <v>-0.5</v>
@@ -184,7 +184,7 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -192,10 +192,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>0.75</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="C4" s="0">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="0">
         <v>-0.5</v>
@@ -204,10 +204,10 @@
         <v>-0.75</v>
       </c>
       <c r="F4" s="0">
-        <v>0.43638034375544998</v>
+        <v>0.5</v>
       </c>
       <c r="G4" s="0">
-        <v>-0.35447862497820026</v>
+        <v>0.59999999999999998</v>
       </c>
     </row>
     <row r="5">
@@ -215,22 +215,22 @@
         <v>1.5</v>
       </c>
       <c r="B5" s="0">
-        <v>0.75</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="C5" s="0">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.4228589803274877</v>
+        <v>-0.43945396901355599</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.62135606083501227</v>
+        <v>-0.6127623297640602</v>
       </c>
       <c r="F5" s="0">
-        <v>0.43638034375544998</v>
+        <v>0.5</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.35447862497820026</v>
+        <v>0.59999999999999998</v>
       </c>
     </row>
     <row r="6">
@@ -238,22 +238,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="0">
-        <v>0.68517437059165665</v>
+        <v>0.53748284343812314</v>
       </c>
       <c r="C6" s="0">
-        <v>1.0647312387437065</v>
+        <v>0.86364896357043053</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.3457179606549754</v>
+        <v>-0.37890793802711198</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.49271212167002454</v>
+        <v>-0.4755246595281204</v>
       </c>
       <c r="F6" s="0">
-        <v>0.43638034375544998</v>
+        <v>0.5</v>
       </c>
       <c r="G6" s="0">
-        <v>-0.35447862497820026</v>
+        <v>0.59999999999999998</v>
       </c>
     </row>
     <row r="7">
@@ -261,22 +261,22 @@
         <v>2.5</v>
       </c>
       <c r="B7" s="0">
-        <v>0.65262473792307374</v>
+        <v>0.51874142171906157</v>
       </c>
       <c r="C7" s="0">
-        <v>0.91830541652255482</v>
+        <v>0.88182448178521522</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.23472263072250582</v>
+        <v>-0.32072161521683973</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.39181595359024946</v>
+        <v>-0.33726999654050616</v>
       </c>
       <c r="F7" s="0">
-        <v>0.32538501382298041</v>
+        <v>0.44181367718972775</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.45537479305797535</v>
+        <v>0.46174533701238574</v>
       </c>
     </row>
     <row r="8">
@@ -284,22 +284,22 @@
         <v>3</v>
       </c>
       <c r="B8" s="0">
-        <v>0.59889354055044974</v>
+        <v>0.45602443312913082</v>
       </c>
       <c r="C8" s="0">
-        <v>0.77825914406625518</v>
+        <v>0.74556524598003948</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.17335975785482088</v>
+        <v>-0.26002235916283067</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.25494156652888456</v>
+        <v>-0.200100027835655</v>
       </c>
       <c r="F8" s="0">
-        <v>0.21438968389051083</v>
+        <v>0.3836273543794555</v>
       </c>
       <c r="G8" s="0">
-        <v>-0.55627096113775043</v>
+        <v>0.3234906740247715</v>
       </c>
     </row>
     <row r="9">
@@ -307,22 +307,22 @@
         <v>3.5</v>
       </c>
       <c r="B9" s="0">
-        <v>0.54663572585523568</v>
+        <v>0.41982589375429313</v>
       </c>
       <c r="C9" s="0">
-        <v>0.6376564385329665</v>
+        <v>0.68452796000240546</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.17335975785482088</v>
+        <v>-0.26002235916283067</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.25494156652888456</v>
+        <v>-0.200100027835655</v>
       </c>
       <c r="F9" s="0">
-        <v>0.2666474985857249</v>
+        <v>0.41982589375429313</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.41566825560446174</v>
+        <v>0.38452796000240552</v>
       </c>
     </row>
     <row r="10">
@@ -330,22 +330,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="0">
-        <v>0.49437791116002167</v>
+        <v>0.41982589375429313</v>
       </c>
       <c r="C10" s="0">
-        <v>0.49705373299967787</v>
+        <v>0.68452796000240546</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.10335612963454799</v>
+        <v>-0.20083944531161932</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.18530491106667316</v>
+        <v>-0.062269034557364766</v>
       </c>
       <c r="F10" s="0">
-        <v>0.31890531328093891</v>
+        <v>0.41982589375429313</v>
       </c>
       <c r="G10" s="0">
-        <v>-0.27506555007117311</v>
+        <v>0.38452796000240552</v>
       </c>
     </row>
     <row r="11">
@@ -353,22 +353,22 @@
         <v>4.5</v>
       </c>
       <c r="B11" s="0">
-        <v>0.43748822807441906</v>
+        <v>0.36064297990308175</v>
       </c>
       <c r="C11" s="0">
-        <v>0.35826049123906589</v>
+        <v>0.54669696672411516</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.039492877897868761</v>
+        <v>-0.14165653146040796</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.049579139462244515</v>
+        <v>0.075561958720925498</v>
       </c>
       <c r="F11" s="0">
-        <v>0.31890531328093891</v>
+        <v>0.41982589375429313</v>
       </c>
       <c r="G11" s="0">
-        <v>-0.27506555007117311</v>
+        <v>0.38452796000240552</v>
       </c>
     </row>
     <row r="12">
@@ -376,22 +376,22 @@
         <v>5</v>
       </c>
       <c r="B12" s="0">
-        <v>0.38721156439028237</v>
+        <v>0.39023443682868741</v>
       </c>
       <c r="C12" s="0">
-        <v>0.21693725504348407</v>
+        <v>0.61561246336326025</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.039492877897868761</v>
+        <v>-0.14165653146040796</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.049579139462244515</v>
+        <v>0.075561958720925498</v>
       </c>
       <c r="F12" s="0">
-        <v>0.28970621769153504</v>
+        <v>0.36064297990308175</v>
       </c>
       <c r="G12" s="0">
-        <v>-0.31232234476670884</v>
+        <v>0.24669696672411526</v>
       </c>
     </row>
     <row r="13">
@@ -399,22 +399,22 @@
         <v>5.5</v>
       </c>
       <c r="B13" s="0">
-        <v>0.3384588910409087</v>
+        <v>0.37543870836588455</v>
       </c>
       <c r="C13" s="0">
-        <v>0.10230745513838761</v>
+        <v>0.58115471504368776</v>
       </c>
       <c r="D13" s="0">
-        <v>0.02385934324620681</v>
+        <v>-0.082473617609196581</v>
       </c>
       <c r="E13" s="0">
-        <v>0.083679057790619793</v>
+        <v>0.21339295199921574</v>
       </c>
       <c r="F13" s="0">
-        <v>0.3238593432462068</v>
+        <v>0.30146006605187042</v>
       </c>
       <c r="G13" s="0">
-        <v>-0.2163209422093802</v>
+        <v>0.10886597344582499</v>
       </c>
     </row>
     <row r="14">
@@ -422,22 +422,22 @@
         <v>6</v>
       </c>
       <c r="B14" s="0">
-        <v>0.33115911714355772</v>
+        <v>0.31625579451467323</v>
       </c>
       <c r="C14" s="0">
-        <v>0.09299325646450371</v>
+        <v>0.44332372176539753</v>
       </c>
       <c r="D14" s="0">
-        <v>0.02385934324620681</v>
+        <v>-0.082473617609196581</v>
       </c>
       <c r="E14" s="0">
-        <v>0.083679057790619793</v>
+        <v>0.21339295199921574</v>
       </c>
       <c r="F14" s="0">
-        <v>0.33115911714355772</v>
+        <v>0.29648254537834395</v>
       </c>
       <c r="G14" s="0">
-        <v>-0.20700674353549628</v>
+        <v>0.097273833521451747</v>
       </c>
     </row>
     <row r="15">
@@ -445,22 +445,22 @@
         <v>6.5</v>
       </c>
       <c r="B15" s="0">
-        <v>0.33115911714355772</v>
+        <v>0.30636916994650859</v>
       </c>
       <c r="C15" s="0">
-        <v>0.09299325646450371</v>
+        <v>0.4202987776434246</v>
       </c>
       <c r="D15" s="0">
-        <v>0.02385934324620681</v>
+        <v>-0.082473617609196581</v>
       </c>
       <c r="E15" s="0">
-        <v>0.083679057790619793</v>
+        <v>0.21339295199921574</v>
       </c>
       <c r="F15" s="0">
-        <v>0.33115911714355772</v>
+        <v>0.30636916994650859</v>
       </c>
       <c r="G15" s="0">
-        <v>-0.20700674353549628</v>
+        <v>0.12029877764342464</v>
       </c>
     </row>
     <row r="16">
@@ -468,22 +468,22 @@
         <v>7</v>
       </c>
       <c r="B16" s="0">
-        <v>0.33115911714355772</v>
+        <v>0.30636916994650859</v>
       </c>
       <c r="C16" s="0">
-        <v>0.09299325646450371</v>
+        <v>0.4202987776434246</v>
       </c>
       <c r="D16" s="0">
-        <v>0.027509230194882273</v>
+        <v>-0.03805222383134399</v>
       </c>
       <c r="E16" s="0">
-        <v>0.088336157127561751</v>
+        <v>0.31684586482132016</v>
       </c>
       <c r="F16" s="0">
-        <v>0.33115911714355772</v>
+        <v>0.30636916994650859</v>
       </c>
       <c r="G16" s="0">
-        <v>-0.20700674353549628</v>
+        <v>0.12029877764342464</v>
       </c>
     </row>
     <row r="17">
@@ -491,22 +491,22 @@
         <v>7.5</v>
       </c>
       <c r="B17" s="0">
-        <v>0.33115911714355772</v>
+        <v>0.30636916994650859</v>
       </c>
       <c r="C17" s="0">
-        <v>0.09299325646450371</v>
+        <v>0.4202987776434246</v>
       </c>
       <c r="D17" s="0">
-        <v>0.029334173669220004</v>
+        <v>-0.015841526942417694</v>
       </c>
       <c r="E17" s="0">
-        <v>0.090664706796032724</v>
+        <v>0.36857232123237238</v>
       </c>
       <c r="F17" s="0">
-        <v>0.33115911714355772</v>
+        <v>0.30636916994650859</v>
       </c>
       <c r="G17" s="0">
-        <v>-0.20700674353549628</v>
+        <v>0.12029877764342464</v>
       </c>
     </row>
     <row r="18">
@@ -514,22 +514,22 @@
         <v>8</v>
       </c>
       <c r="B18" s="0">
-        <v>0.33024664540638887</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C18" s="0">
-        <v>0.091828981630268217</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D18" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E18" s="0">
-        <v>0.091828981630268217</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F18" s="0">
-        <v>0.33024664540638887</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G18" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="19">
@@ -537,22 +537,22 @@
         <v>8.5</v>
       </c>
       <c r="B19" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C19" s="0">
-        <v>0.091828981630268217</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D19" s="0">
-        <v>0.030246645406388883</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E19" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F19" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G19" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="20">
@@ -560,22 +560,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C20" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D20" s="0">
-        <v>0.030246645406388883</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E20" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F20" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G20" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="21">
@@ -583,22 +583,22 @@
         <v>9.5</v>
       </c>
       <c r="B21" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C21" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D21" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E21" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F21" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G21" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="22">
@@ -606,22 +606,22 @@
         <v>10</v>
       </c>
       <c r="B22" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C22" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D22" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E22" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F22" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G22" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="23">
@@ -629,22 +629,22 @@
         <v>10.5</v>
       </c>
       <c r="B23" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C23" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D23" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E23" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F23" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G23" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="24">
@@ -652,22 +652,22 @@
         <v>11</v>
       </c>
       <c r="B24" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C24" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D24" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E24" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F24" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G24" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="25">
@@ -675,22 +675,22 @@
         <v>11.5</v>
       </c>
       <c r="B25" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C25" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D25" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E25" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F25" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G25" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="26">
@@ -698,22 +698,22 @@
         <v>12</v>
       </c>
       <c r="B26" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C26" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D26" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E26" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F26" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G26" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="27">
@@ -721,22 +721,22 @@
         <v>12.5</v>
       </c>
       <c r="B27" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C27" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D27" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E27" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F27" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G27" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="28">
@@ -744,22 +744,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C28" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D28" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E28" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F28" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G28" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="29">
@@ -767,22 +767,22 @@
         <v>13.5</v>
       </c>
       <c r="B29" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C29" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D29" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E29" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F29" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G29" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="30">
@@ -790,22 +790,22 @@
         <v>14</v>
       </c>
       <c r="B30" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C30" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D30" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E30" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F30" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G30" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="31">
@@ -813,22 +813,22 @@
         <v>14.5</v>
       </c>
       <c r="B31" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C31" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D31" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E31" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F31" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G31" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="32">
@@ -836,22 +836,22 @@
         <v>15</v>
       </c>
       <c r="B32" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C32" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D32" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E32" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F32" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G32" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="33">
@@ -859,22 +859,22 @@
         <v>15.5</v>
       </c>
       <c r="B33" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C33" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D33" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E33" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F33" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G33" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="34">
@@ -882,22 +882,22 @@
         <v>16</v>
       </c>
       <c r="B34" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C34" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D34" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E34" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F34" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G34" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="35">
@@ -905,22 +905,22 @@
         <v>16.5</v>
       </c>
       <c r="B35" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C35" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D35" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E35" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F35" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G35" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="36">
@@ -928,22 +928,22 @@
         <v>17</v>
       </c>
       <c r="B36" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C36" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D36" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E36" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F36" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G36" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="37">
@@ -951,22 +951,22 @@
         <v>17.5</v>
       </c>
       <c r="B37" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C37" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D37" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E37" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F37" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G37" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="38">
@@ -974,22 +974,22 @@
         <v>18</v>
       </c>
       <c r="B38" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C38" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D38" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E38" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F38" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G38" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="39">
@@ -997,22 +997,22 @@
         <v>18.5</v>
       </c>
       <c r="B39" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C39" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D39" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E39" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F39" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G39" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="40">
@@ -1020,22 +1020,22 @@
         <v>19</v>
       </c>
       <c r="B40" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C40" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D40" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E40" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F40" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G40" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
     <row r="41">
@@ -1043,22 +1043,22 @@
         <v>19.5</v>
       </c>
       <c r="B41" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="C41" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="D41" s="0">
-        <v>0.030246645406388856</v>
+        <v>-0.0047361784979545463</v>
       </c>
       <c r="E41" s="0">
-        <v>0.091828981630268203</v>
+        <v>0.39443554943789849</v>
       </c>
       <c r="F41" s="0">
-        <v>0.33024664540638882</v>
+        <v>0.29526382150204544</v>
       </c>
       <c r="G41" s="0">
-        <v>-0.20817101836973179</v>
+        <v>0.094435549437898531</v>
       </c>
     </row>
   </sheetData>
@@ -1684,13 +1684,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>1.3284284783992784</v>
+        <v>0.86618576401241887</v>
       </c>
       <c r="C2" s="0">
-        <v>1.025372561018135</v>
+        <v>1.2018504251546631</v>
       </c>
       <c r="D2" s="0">
-        <v>0.51693541397569409</v>
+        <v>0.34197140881138655</v>
       </c>
     </row>
     <row r="3">
@@ -1698,13 +1698,13 @@
         <v>0.5</v>
       </c>
       <c r="B3" s="0">
-        <v>1.3284284783992784</v>
+        <v>0.86618576401241887</v>
       </c>
       <c r="C3" s="0">
-        <v>1.025372561018135</v>
+        <v>1.2018504251546631</v>
       </c>
       <c r="D3" s="0">
-        <v>0.51693541397569409</v>
+        <v>0.34197140881138655</v>
       </c>
     </row>
     <row r="4">
@@ -1712,13 +1712,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>1.3284284783992784</v>
+        <v>0.86618576401241887</v>
       </c>
       <c r="C4" s="0">
-        <v>1.025372561018135</v>
+        <v>1.2018504251546631</v>
       </c>
       <c r="D4" s="0">
-        <v>0.40297769054644633</v>
+        <v>0.48333333333333334</v>
       </c>
     </row>
     <row r="5">
@@ -1726,13 +1726,13 @@
         <v>1.5</v>
       </c>
       <c r="B5" s="0">
-        <v>1.3284284783992784</v>
+        <v>0.86618576401241887</v>
       </c>
       <c r="C5" s="0">
-        <v>0.88013766910806202</v>
+        <v>1.0543913233033104</v>
       </c>
       <c r="D5" s="0">
-        <v>0.40297769054644633</v>
+        <v>0.48333333333333334</v>
       </c>
     </row>
     <row r="6">
@@ -1740,13 +1740,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="0">
-        <v>1.1785248824114867</v>
+        <v>0.71698653226295939</v>
       </c>
       <c r="C6" s="0">
-        <v>0.73681459287737794</v>
+        <v>0.90776521241462427</v>
       </c>
       <c r="D6" s="0">
-        <v>0.40297769054644633</v>
+        <v>0.48333333333333334</v>
       </c>
     </row>
     <row r="7">
@@ -1754,13 +1754,13 @@
         <v>2.5</v>
       </c>
       <c r="B7" s="0">
-        <v>1.0316163222035599</v>
+        <v>0.72329717884722844</v>
       </c>
       <c r="C7" s="0">
-        <v>0.58693209596746665</v>
+        <v>0.76317323469448428</v>
       </c>
       <c r="D7" s="0">
-        <v>0.45197842777080988</v>
+        <v>0.34719153956608206</v>
       </c>
     </row>
     <row r="8">
@@ -1768,13 +1768,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="0">
-        <v>0.88204559274924255</v>
+        <v>0.57385784828248454</v>
       </c>
       <c r="C8" s="0">
-        <v>0.45705091590474423</v>
+        <v>0.62020445001707525</v>
       </c>
       <c r="D8" s="0">
-        <v>0.53960909857247497</v>
+        <v>0.22906946365987219</v>
       </c>
     </row>
     <row r="9">
@@ -1782,13 +1782,13 @@
         <v>3.5</v>
       </c>
       <c r="B9" s="0">
-        <v>0.73281532872878663</v>
+        <v>0.50289575687557408</v>
       </c>
       <c r="C9" s="0">
-        <v>0.45705091590474423</v>
+        <v>0.62020445001707525</v>
       </c>
       <c r="D9" s="0">
-        <v>0.40211982235921467</v>
+        <v>0.28668339031414652</v>
       </c>
     </row>
     <row r="10">
@@ -1796,13 +1796,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="0">
-        <v>0.58397960953392603</v>
+        <v>0.50289575687557408</v>
       </c>
       <c r="C10" s="0">
-        <v>0.36173671036648331</v>
+        <v>0.48225791054661321</v>
       </c>
       <c r="D10" s="0">
-        <v>0.27788976916434643</v>
+        <v>0.28668339031414652</v>
       </c>
     </row>
     <row r="11">
@@ -1810,13 +1810,13 @@
         <v>4.5</v>
       </c>
       <c r="B11" s="0">
-        <v>0.43512358671741513</v>
+        <v>0.35447975987365277</v>
       </c>
       <c r="C11" s="0">
-        <v>0.25826525731702638</v>
+        <v>0.35424825299299284</v>
       </c>
       <c r="D11" s="0">
-        <v>0.27788976916434643</v>
+        <v>0.28668339031414652</v>
       </c>
     </row>
     <row r="12">
@@ -1824,13 +1824,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="0">
-        <v>0.28923408232419773</v>
+        <v>0.42854990517064573</v>
       </c>
       <c r="C12" s="0">
-        <v>0.25826525731702638</v>
+        <v>0.35424825299299284</v>
       </c>
       <c r="D12" s="0">
-        <v>0.30454401325048258</v>
+        <v>0.19400443326278249</v>
       </c>
     </row>
     <row r="13">
@@ -1838,13 +1838,13 @@
         <v>5.5</v>
       </c>
       <c r="B13" s="0">
-        <v>0.17025917765955997</v>
+        <v>0.39147057448922773</v>
       </c>
       <c r="C13" s="0">
-        <v>0.21735668469458092</v>
+        <v>0.25181532362505199</v>
       </c>
       <c r="D13" s="0">
-        <v>0.22661001666910416</v>
+        <v>0.19516166111512176</v>
       </c>
     </row>
     <row r="14">
@@ -1852,13 +1852,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="0">
-        <v>0.15853649408681128</v>
+        <v>0.2444401124356477</v>
       </c>
       <c r="C14" s="0">
-        <v>0.21735668469458092</v>
+        <v>0.25181532362505199</v>
       </c>
       <c r="D14" s="0">
-        <v>0.22212128686516136</v>
+        <v>0.20044311984430432</v>
       </c>
     </row>
     <row r="15">
@@ -1866,13 +1866,13 @@
         <v>6.5</v>
       </c>
       <c r="B15" s="0">
-        <v>0.15853649408681128</v>
+        <v>0.22026906975219834</v>
       </c>
       <c r="C15" s="0">
-        <v>0.21735668469458092</v>
+        <v>0.25181532362505199</v>
       </c>
       <c r="D15" s="0">
-        <v>0.22212128686516136</v>
+        <v>0.19062842522416232</v>
       </c>
     </row>
     <row r="16">
@@ -1880,13 +1880,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="0">
-        <v>0.15853649408681128</v>
+        <v>0.22026906975219834</v>
       </c>
       <c r="C16" s="0">
-        <v>0.21634724120574991</v>
+        <v>0.21535596989739264</v>
       </c>
       <c r="D16" s="0">
-        <v>0.22212128686516136</v>
+        <v>0.19062842522416232</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>7.5</v>
       </c>
       <c r="B17" s="0">
-        <v>0.15853649408681128</v>
+        <v>0.22026906975219834</v>
       </c>
       <c r="C17" s="0">
-        <v>0.21590156706709623</v>
+        <v>0.21764336906251916</v>
       </c>
       <c r="D17" s="0">
-        <v>0.22212128686516136</v>
+        <v>0.19062842522416232</v>
       </c>
     </row>
     <row r="18">
@@ -1908,13 +1908,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="0">
-        <v>0.15707233133142176</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C18" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D18" s="0">
-        <v>0.22265293236723158</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="19">
@@ -1922,13 +1922,13 @@
         <v>8.5</v>
       </c>
       <c r="B19" s="0">
-        <v>0.15707233133142173</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C19" s="0">
-        <v>0.21569360219082673</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D19" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="20">
@@ -1936,13 +1936,13 @@
         <v>9</v>
       </c>
       <c r="B20" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C20" s="0">
-        <v>0.21569360219082673</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D20" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="21">
@@ -1950,13 +1950,13 @@
         <v>9.5</v>
       </c>
       <c r="B21" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C21" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D21" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="22">
@@ -1964,13 +1964,13 @@
         <v>10</v>
       </c>
       <c r="B22" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C22" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D22" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="23">
@@ -1978,13 +1978,13 @@
         <v>10.5</v>
       </c>
       <c r="B23" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C23" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D23" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="24">
@@ -1992,13 +1992,13 @@
         <v>11</v>
       </c>
       <c r="B24" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C24" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D24" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="25">
@@ -2006,13 +2006,13 @@
         <v>11.5</v>
       </c>
       <c r="B25" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C25" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D25" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="26">
@@ -2020,13 +2020,13 @@
         <v>12</v>
       </c>
       <c r="B26" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C26" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D26" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="27">
@@ -2034,13 +2034,13 @@
         <v>12.5</v>
       </c>
       <c r="B27" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C27" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D27" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="28">
@@ -2048,13 +2048,13 @@
         <v>13</v>
       </c>
       <c r="B28" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C28" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D28" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="29">
@@ -2062,13 +2062,13 @@
         <v>13.5</v>
       </c>
       <c r="B29" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C29" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D29" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="30">
@@ -2076,13 +2076,13 @@
         <v>14</v>
       </c>
       <c r="B30" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C30" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D30" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="31">
@@ -2090,13 +2090,13 @@
         <v>14.5</v>
       </c>
       <c r="B31" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C31" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D31" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="32">
@@ -2104,13 +2104,13 @@
         <v>15</v>
       </c>
       <c r="B32" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C32" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D32" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="33">
@@ -2118,13 +2118,13 @@
         <v>15.5</v>
       </c>
       <c r="B33" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C33" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D33" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="34">
@@ -2132,13 +2132,13 @@
         <v>16</v>
       </c>
       <c r="B34" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C34" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D34" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="35">
@@ -2146,13 +2146,13 @@
         <v>16.5</v>
       </c>
       <c r="B35" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C35" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D35" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="36">
@@ -2160,13 +2160,13 @@
         <v>17</v>
       </c>
       <c r="B36" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C36" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D36" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="37">
@@ -2174,13 +2174,13 @@
         <v>17.5</v>
       </c>
       <c r="B37" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C37" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D37" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="38">
@@ -2188,13 +2188,13 @@
         <v>18</v>
       </c>
       <c r="B38" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C38" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D38" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="39">
@@ -2202,13 +2202,13 @@
         <v>18.5</v>
       </c>
       <c r="B39" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C39" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D39" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="40">
@@ -2216,13 +2216,13 @@
         <v>19</v>
       </c>
       <c r="B40" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C40" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D40" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
     <row r="41">
@@ -2230,13 +2230,13 @@
         <v>19.5</v>
       </c>
       <c r="B41" s="0">
-        <v>0.15707233133142171</v>
+        <v>0.19338783874169027</v>
       </c>
       <c r="C41" s="0">
-        <v>0.21569360219082676</v>
+        <v>0.22414406811681351</v>
       </c>
       <c r="D41" s="0">
-        <v>0.22265293236723155</v>
+        <v>0.20183539459282876</v>
       </c>
     </row>
   </sheetData>
